--- a/resources/experiment 2/metrics/R2/upto time/Enfermedad renal terminal (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Enfermedad renal terminal (UPTO).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8891089558105484</v>
+        <v>0.9888885749447098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8891090218403847</v>
+        <v>0.9877967006734268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8891090218403847</v>
+        <v>0.834683084050041</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8797147022710322</v>
+        <v>0.9837434359114132</v>
       </c>
       <c r="C4" t="n">
-        <v>0.879713755239077</v>
+        <v>0.9823441979829119</v>
       </c>
       <c r="D4" t="n">
-        <v>0.879713755239077</v>
+        <v>0.8475622989177116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7481806168915975</v>
+        <v>0.8583893558900607</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7481806168915975</v>
+        <v>0.8479154043561267</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7481806168915975</v>
+        <v>0.7727108216995903</v>
       </c>
     </row>
   </sheetData>
